--- a/01_Input/00_CO Validation/Moldova Republic - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Moldova Republic - Energy Projects.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27018"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/UNDP/Energy/CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="735" documentId="13_ncr:1_{F7DA749C-5740-5D4C-B662-A29A9599CDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EEEF10E-D99F-497F-9CC5-5B7F69FE6ED3}"/>
+  <xr:revisionPtr revIDLastSave="764" documentId="13_ncr:1_{F7DA749C-5740-5D4C-B662-A29A9599CDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2217B78E-2C16-423F-8D84-ABF8487EFE5A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="740" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="740" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="Projects" sheetId="1" r:id="rId2"/>
-    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId3"/>
+    <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
+    <sheet name="Projects (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Projects" sheetId="1" r:id="rId3"/>
+    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="129">
   <si>
     <t>Project ID</t>
   </si>
@@ -88,7 +89,7 @@
     <t>https://www.undp.org/moldova/projects/moldova-sustainable-green-cities</t>
   </si>
   <si>
-    <t>Energy (MW added)</t>
+    <t>Electricity Access</t>
   </si>
   <si>
     <t xml:space="preserve">1. Photovoltaic panels for electricity production to cover the costs for interior lightening and lift use for residents of 421 apartments from a multi-storey building;  
@@ -96,7 +97,7 @@
 3. Photovoltaic panels to cover at least 30% of the annual electricity needs of the district Hospital from Singerei </t>
   </si>
   <si>
-    <t>2021-2023</t>
+    <t>421 HH</t>
   </si>
   <si>
     <t xml:space="preserve">Photovoltaic panels were conected to generate energy for  interior lightening and lift use for residents of 421 apartments from a multi-storey building, as well as for the Placement Center for Adults and Older People from Sculeni village, Ungheni district and for the district Hospital from Singerei. 
@@ -116,13 +117,7 @@
     <t>to the CO: Please estimate number of MW or total benefiricaries</t>
   </si>
   <si>
-    <t>Electricity Access</t>
-  </si>
-  <si>
     <t>301 apartments from Chisinau and Balti municipalities</t>
-  </si>
-  <si>
-    <t>2022-2023</t>
   </si>
   <si>
     <t>301 HH</t>
@@ -130,6 +125,9 @@
   <si>
     <t xml:space="preserve">6 multi-storey residential buildings from Chișinău and Bălți municipality (301 apartments) were switched to horizontal system of distribution the thermal energy, that can generate savings up to 30%, and were connected to Domestic Hot Water system 
 After the first heating season, 178 apartments had savings of 90,64 Gcal or about 17% from expected consumption with the vertical system (forecast). The energy saving for preparation of hot water were 23,62%. The total savings in Chisinau based on unused energy are more than US $18 thousand. In Balti, the saving of this year compared to saving from previous years varies from 33.64% to 53.79%. The three multi-story buildings from Balti consumed in 2022-2023 season 270 Gcal less compared with 2021-2022 consumption of these buildings, and with 388 Gcal less compared with 2020-2021 consumption. </t>
+  </si>
+  <si>
+    <t>Energy (MW added)</t>
   </si>
   <si>
     <t>2 solar trees generating green energy to
@@ -161,7 +159,7 @@
     <t>66 electric vehicles charging stations installed</t>
   </si>
   <si>
-    <t>2019-2022</t>
+    <t>2000 HH</t>
   </si>
   <si>
     <t xml:space="preserve">In the Repubic of Moldova are registred about 2000 electric vehicles. </t>
@@ -177,9 +175,6 @@
   </si>
   <si>
     <t>4 editions of the electric cars’ marathon</t>
-  </si>
-  <si>
-    <t>2018-2021</t>
   </si>
   <si>
     <t>Other Energy Services</t>
@@ -188,9 +183,6 @@
     <t>An Energy Management Information System
 (EMIS) and smart meters were installed in 17 public buildings from
 Chisinau</t>
-  </si>
-  <si>
-    <t>2020-2023</t>
   </si>
   <si>
     <t>By 30 June 2023, EMIS system are monitoring the consumption data of 4.5 thousand public buildings from Moldova. The system have consumption data from the last three years. The main energy and water suppliers (Premier Energy, Apa-Canal, Termoelectrica, Cet-Nord, Red-Nord, Apa Canal Floresti) automatically transfer data on energy consumption and other resources to EMIS.</t>
@@ -256,6 +248,9 @@
 3. Energy consumption as a result of implemented energy efficiency and saving measures per target group (HHs, public buildings).</t>
   </si>
   <si>
+    <t>700000 HH</t>
+  </si>
+  <si>
     <t>National Programms on Green home and Vouchers on replacing non efficient home appliances  have been drafted and being piloted during 2023-2024</t>
   </si>
   <si>
@@ -263,11 +258,6 @@
   </si>
   <si>
     <t>Addressing the impacts of the energy crisis in the Republic of Moldova | United Nations Development Programme (undp.org)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023:
-Sweden: 9,826,008 USD
-Switzerland: 6,666,666 USD </t>
   </si>
   <si>
     <t>Support with defining “energy vulnerable consumer” ​
@@ -279,10 +269,13 @@
 Mobilization of additional funds from development partners and aid through the Energy Vulnerability Fund;​</t>
   </si>
   <si>
-    <t>The law on Energy Vulnerability Fund was drafted;
+    <t xml:space="preserve">The law on Energy Vulnerability Fund was drafted;
 The concept and implementation mechanism of the Energy Vulnerability Fund was developed;
 The Energy Vulnerability Information System was developed;
-An information campaign to support registration of beneficiaries on the online platform of the Energy Vulnerability Fund conducted;</t>
+An information campaign to support registration of beneficiaries on the online platform of the Energy Vulnerability Fund conducted;
+2023:
+Sweden: 9,826,008 USD
+Switzerland: 6,666,666 USD </t>
   </si>
   <si>
     <t>Multidimensional response to emerging human security challenges - "Biomass revitalization"</t>
@@ -312,16 +305,13 @@
     <t>Non-VF</t>
   </si>
   <si>
+    <t xml:space="preserve">Emergency support for agri-producers /energy technologies </t>
+  </si>
+  <si>
+    <t>https://www.undp.org/moldova/projects/emergency-support-agri-producers-context-socio-economic-climate-and-energy-crisis</t>
+  </si>
+  <si>
     <t>Medium Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency support for agri-producers /energy technologies </t>
-  </si>
-  <si>
-    <t>https://www.undp.org/moldova/projects/emergency-support-agri-producers-context-socio-economic-climate-and-energy-crisis</t>
-  </si>
-  <si>
-    <t>US$1,983,621 ($689,308 managed by UNDP)</t>
   </si>
   <si>
     <t>SMEs, vulnerable small farmers (particularly women-led farms and young people) in rural areas</t>
@@ -331,10 +321,43 @@
 </t>
   </si>
   <si>
+    <t>20 micro agri-producers and 10 small and medium agri-producers benefit from the implementation of renewable energy and energy-efficient technologies (biomass boilers in greenhouses, photovoltaic, among others).
+US$1,983,621 ($689,308 managed by UNDP)</t>
+  </si>
+  <si>
+    <t>Austria (ADA) $670,123 (2024)</t>
+  </si>
+  <si>
+    <t>2021-2023</t>
+  </si>
+  <si>
+    <t>2022-2023</t>
+  </si>
+  <si>
+    <t>2019-2022</t>
+  </si>
+  <si>
+    <t>2018-2021</t>
+  </si>
+  <si>
+    <t>2020-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023:
+Sweden: 9,826,008 USD
+Switzerland: 6,666,666 USD </t>
+  </si>
+  <si>
+    <t>The law on Energy Vulnerability Fund was drafted;
+The concept and implementation mechanism of the Energy Vulnerability Fund was developed;
+The Energy Vulnerability Information System was developed;
+An information campaign to support registration of beneficiaries on the online platform of the Energy Vulnerability Fund conducted;</t>
+  </si>
+  <si>
+    <t>US$1,983,621 ($689,308 managed by UNDP)</t>
+  </si>
+  <si>
     <t>20 micro agri-producers and 10 small and medium agri-producers benefit from the implementation of renewable energy and energy-efficient technologies (biomass boilers in greenhouses, photovoltaic, among others).</t>
-  </si>
-  <si>
-    <t>Austria (ADA) $670,123 (2024)</t>
   </si>
   <si>
     <t xml:space="preserve">1 multi-storey building and 2 social institutions </t>
@@ -405,9 +428,6 @@
   </si>
   <si>
     <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>For the policy or regulatory frameworks, the "Indicator" should refer to the unit that your targets are listed as, along with a justification as needed. The numbers showed in target are not clear what they reffered to. Need also to disagregate data for 1000378 and 133573</t>
   </si>
   <si>
     <t>Tier</t>
@@ -561,7 +581,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,6 +633,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,7 +705,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -756,21 +782,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -789,12 +872,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -806,9 +883,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1115,6 +1189,487 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B8D031-DB22-47ED-A6B4-22FC4BDA370C}">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="65.140625" customWidth="1"/>
+    <col min="7" max="7" width="46.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" customWidth="1"/>
+    <col min="9" max="9" width="56.140625" customWidth="1"/>
+    <col min="10" max="10" width="28.28515625" customWidth="1"/>
+    <col min="11" max="11" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="306" customHeight="1">
+      <c r="A2" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="8">
+        <v>127500</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="31"/>
+      <c r="H2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="252.75" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="8">
+        <v>186950</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="46"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="26"/>
+    </row>
+    <row r="4" spans="1:13" ht="45" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="8">
+        <v>49000</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="7">
+        <v>5</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="46"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="94.5" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="8">
+        <v>30000</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="46"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="1:13" ht="45" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="8">
+        <v>122000</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="48"/>
+      <c r="M6" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="45" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="37">
+        <v>20000</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="48"/>
+      <c r="M7" s="26"/>
+    </row>
+    <row r="8" spans="1:13" ht="106.5" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="37">
+        <v>56000</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="49"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="303.75" customHeight="1">
+      <c r="A9" s="25">
+        <v>130906</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="15">
+        <v>649000</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" ht="214.5" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="14">
+        <v>730850</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="45"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:13" ht="214.5" customHeight="1">
+      <c r="A11" s="25"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44">
+        <v>372900</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="6">
+        <v>200000</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="45"/>
+      <c r="M11" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="214.5" customHeight="1">
+      <c r="A12" s="25"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="41">
+        <v>9039075</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="42"/>
+      <c r="H12" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="45"/>
+      <c r="M12" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="214.5" customHeight="1">
+      <c r="A13" s="7">
+        <v>130906</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="22">
+        <f>9826008+6666666</f>
+        <v>16492674</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="29"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="45"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" ht="193.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>1000378</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2298111</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="7">
+        <v>20000</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" ht="322.5" customHeight="1">
+      <c r="A15" s="7">
+        <v>133573</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1983621</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="L2:L8"/>
+    <mergeCell ref="J7:J8"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6" xr:uid="{7484386B-9BBD-476A-91F3-5AF2E4A5114B}"/>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{E166A882-82EE-43BA-800C-43C699F5B8AD}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{F54D7698-3310-46A8-8B34-7F617E5DC071}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{2FDD2CD3-4A1D-44AC-945B-AF971CA09CE4}"/>
+    <hyperlink ref="C9:C12" r:id="rId4" display="https://www.undp.org/moldova/projects/addressing-impacts-energy-crisis-republic-moldova" xr:uid="{C8AAC88F-363F-4778-A2DA-825D54C305E7}"/>
+    <hyperlink ref="C13" r:id="rId5" xr:uid="{CE989422-ABF1-46B8-AB73-AC4E686E8BD7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C6B7439B-2465-4ED7-8B4F-5693BC613A05}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E5 E7:E15</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49729D02-0BFC-449F-BFDA-CA7667244C40}">
   <dimension ref="A1:M18"/>
   <sheetViews>
@@ -1179,38 +1734,38 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="306" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="56" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="8">
         <v>127500</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="46" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="47" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="26" t="s">
@@ -1218,257 +1773,257 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="252.75" customHeight="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="38"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="8">
         <v>186950</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="I3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="39"/>
-      <c r="L3" s="28"/>
+      <c r="J3" s="46"/>
+      <c r="L3" s="48"/>
       <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:13" ht="45" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="38"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="8">
         <v>49000</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="10">
         <v>2020</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="46"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="26" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="5" spans="1:13" ht="94.5" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="38"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="8">
         <v>30000</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="G5" s="10">
         <v>2019</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="39"/>
-      <c r="L5" s="28"/>
+      <c r="J5" s="46"/>
+      <c r="L5" s="48"/>
       <c r="M5" s="13"/>
     </row>
     <row r="6" spans="1:13" ht="45" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="38"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="8">
         <v>122000</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="G6" s="10" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="L6" s="48"/>
+      <c r="M6" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="26" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="7" spans="1:13" ht="45" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="38"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="8">
         <v>20000</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="G7" s="10" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="28"/>
+      <c r="L7" s="48"/>
       <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:13" ht="106.5" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="38"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="8">
         <v>56000</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="40"/>
-      <c r="L8" s="28"/>
+        <v>43</v>
+      </c>
+      <c r="J8" s="49"/>
+      <c r="L8" s="48"/>
       <c r="M8" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="303.75" customHeight="1">
-      <c r="A9" s="28">
+      <c r="A9" s="48">
         <v>130906</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>48</v>
+      <c r="B9" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>45</v>
       </c>
       <c r="D9" s="15">
         <v>649000</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G9" s="16">
         <v>2022</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>49</v>
       </c>
       <c r="M9" s="13"/>
     </row>
     <row r="10" spans="1:13" ht="214.5" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="14">
         <v>730850</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G10" s="16">
         <v>2022</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="31"/>
+        <v>51</v>
+      </c>
+      <c r="J10" s="45"/>
       <c r="M10" s="13"/>
     </row>
     <row r="11" spans="1:13" ht="214.5" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="14">
         <v>372900</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G11" s="16">
         <v>2022</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="31"/>
+        <v>53</v>
+      </c>
+      <c r="J11" s="45"/>
       <c r="M11" s="26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="214.5" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="14">
         <v>9039075</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G12" s="16">
         <v>2022</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="31"/>
+        <v>57</v>
+      </c>
+      <c r="J12" s="45"/>
       <c r="M12" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="214.5" customHeight="1">
@@ -1476,28 +2031,28 @@
         <v>130906</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="G13" s="18">
         <v>2022</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="31"/>
+        <v>82</v>
+      </c>
+      <c r="J13" s="45"/>
       <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:13" ht="193.5" customHeight="1">
@@ -1505,34 +2060,34 @@
         <v>1000378</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D14" s="8">
         <v>2298111</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H14" s="5">
         <v>20000</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M14" s="13"/>
     </row>
@@ -1542,7 +2097,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
       <c r="E15" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1558,34 +2113,34 @@
         <v>133573</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="G16" s="4">
         <v>2022</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L16" s="25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M16" s="13"/>
     </row>
@@ -1631,13 +2186,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="F10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1687,335 +2242,335 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="166.5" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="56" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="8">
         <v>127500</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="46" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="45" customHeight="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="38"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="8">
         <v>186950</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="G3" s="10" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" s="39"/>
+        <v>88</v>
+      </c>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:10" ht="45" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="38"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="8">
         <v>49000</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="10">
         <v>2020</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="39"/>
+      <c r="J4" s="46"/>
     </row>
     <row r="5" spans="1:10" ht="94.5" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="38"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="8">
         <v>30000</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="G5" s="10">
         <v>2019</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="39"/>
+      <c r="J5" s="46"/>
     </row>
     <row r="6" spans="1:10" ht="45" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="38"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="8">
         <v>122000</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="38"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="8">
         <v>20000</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="G7" s="10" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="49" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="61.5" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="38"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="8">
         <v>56000</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="49"/>
+    </row>
+    <row r="9" spans="1:10" ht="303.75" customHeight="1">
+      <c r="A9" s="48">
+        <v>130906</v>
+      </c>
+      <c r="B9" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="C9" s="51" t="s">
         <v>45</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="40"/>
-    </row>
-    <row r="9" spans="1:10" ht="303.75" customHeight="1">
-      <c r="A9" s="28">
-        <v>130906</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>48</v>
       </c>
       <c r="D9" s="15">
         <v>649000</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G9" s="16">
         <v>2022</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="214.5" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="14">
         <v>730850</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G10" s="16">
         <v>2022</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="31"/>
+      <c r="J10" s="45"/>
     </row>
     <row r="11" spans="1:10" ht="214.5" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="14">
         <v>372900</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G11" s="16">
         <v>2022</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" s="31"/>
+        <v>96</v>
+      </c>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="214.5" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="14">
         <v>9039075</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G12" s="16">
         <v>2022</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" s="31"/>
+        <v>97</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:10" ht="214.5" customHeight="1">
       <c r="A13" s="7">
         <v>130906</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="G13" s="18">
         <v>2022</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="31"/>
+        <v>82</v>
+      </c>
+      <c r="J13" s="45"/>
     </row>
     <row r="14" spans="1:10" ht="303" customHeight="1">
       <c r="A14" s="7">
         <v>1000378</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D14" s="8">
         <v>2298111</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H14" s="5">
         <v>500</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="322.5" customHeight="1">
@@ -2023,37 +2578,35 @@
         <v>133573</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G15" s="4">
         <v>2022</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="12" t="s">
-        <v>96</v>
-      </c>
+      <c r="A17" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2090,7 +2643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -2105,160 +2658,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="41" t="s">
-        <v>99</v>
+      <c r="A2" s="58" t="s">
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="58"/>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="58"/>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="41"/>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="41"/>
-      <c r="B4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="42"/>
+      <c r="A6" s="59"/>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="42"/>
+      <c r="A7" s="59"/>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="42"/>
+      <c r="A8" s="59"/>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="42"/>
+      <c r="A9" s="59"/>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="43" t="s">
-        <v>113</v>
+      <c r="A10" s="60" t="s">
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="60"/>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="44" t="s">
-        <v>117</v>
+      <c r="A12" s="61" t="s">
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="44"/>
+      <c r="A13" s="61"/>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="44"/>
+      <c r="A14" s="61"/>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2273,6 +2826,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2521,28 +3094,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D49E0E-D524-40C8-9640-978549F64A96}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1FA3D7F-F698-4E68-A900-C45E704A4D7C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2550,5 +3103,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1FA3D7F-F698-4E68-A900-C45E704A4D7C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D49E0E-D524-40C8-9640-978549F64A96}"/>
 </file>
--- a/01_Input/00_CO Validation/Moldova Republic - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Moldova Republic - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/UNDP/Energy/CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="847" documentId="13_ncr:1_{F7DA749C-5740-5D4C-B662-A29A9599CDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BEA07B9-7A79-4AF0-8E77-45D7F3F10EB2}"/>
+  <xr:revisionPtr revIDLastSave="849" documentId="13_ncr:1_{F7DA749C-5740-5D4C-B662-A29A9599CDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A2853B9-61EC-4018-AED7-CE707491B8CE}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="740" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1408,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B8D031-DB22-47ED-A6B4-22FC4BDA370C}">
   <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3516,28 +3516,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -3562,6 +3542,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3641,6 +3622,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3784,8 +3770,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1FA3D7F-F698-4E68-A900-C45E704A4D7C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16E1EE50-1E76-4669-A00C-97DB2E2DCEF9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3793,5 +3799,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D49E0E-D524-40C8-9640-978549F64A96}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1FA3D7F-F698-4E68-A900-C45E704A4D7C}"/>
 </file>